--- a/Final Result.xlsx
+++ b/Final Result.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GPT4_Unemployment_Predictions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FB110004-DFB8-424F-9107-2F09C7042463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED293A3F-566A-411E-A3F0-23090FD2B01D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="364">
   <si>
     <t>Jobs Lost</t>
   </si>
@@ -1097,12 +1111,27 @@
   </si>
   <si>
     <t>11-9000</t>
+  </si>
+  <si>
+    <t>MAX ATTRITION</t>
+  </si>
+  <si>
+    <t>WORST CASE</t>
+  </si>
+  <si>
+    <t>JOBS LOST</t>
+  </si>
+  <si>
+    <t>JOBS REMAINING</t>
+  </si>
+  <si>
+    <t>TOTAL EMPLOYMENT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1939,11 +1968,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G107" sqref="G107"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D27" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2000,7 +2029,7 @@
         <v>591644.4</v>
       </c>
       <c r="B2" s="2">
-        <f>A2/F2</f>
+        <f t="shared" ref="B2:B33" si="0">A2/F2</f>
         <v>6.0000000000000005E-2</v>
       </c>
       <c r="C2" s="1">
@@ -2036,7 +2065,7 @@
         <v>253317.4</v>
       </c>
       <c r="B3" s="2">
-        <f>A3/F3</f>
+        <f t="shared" si="0"/>
         <v>6.9999999999999993E-2</v>
       </c>
       <c r="C3" s="1">
@@ -2072,7 +2101,7 @@
         <v>102636.45</v>
       </c>
       <c r="B4" s="2">
-        <f>A4/F4</f>
+        <f t="shared" si="0"/>
         <v>0.105</v>
       </c>
       <c r="C4" s="1">
@@ -2108,7 +2137,7 @@
         <v>626942.69999999995</v>
       </c>
       <c r="B5" s="2">
-        <f>A5/F5</f>
+        <f t="shared" si="0"/>
         <v>0.26999999999999996</v>
       </c>
       <c r="C5" s="1">
@@ -2144,7 +2173,7 @@
         <v>176545.2</v>
       </c>
       <c r="B6" s="2">
-        <f>A6/F6</f>
+        <f t="shared" si="0"/>
         <v>6.0000000000000005E-2</v>
       </c>
       <c r="C6" s="1">
@@ -2180,7 +2209,7 @@
         <v>3774310.8</v>
       </c>
       <c r="B7" s="2">
-        <f>A7/F7</f>
+        <f t="shared" si="0"/>
         <v>0.38999999999999996</v>
       </c>
       <c r="C7" s="1">
@@ -2216,7 +2245,7 @@
         <v>1798418.7</v>
       </c>
       <c r="B8" s="2">
-        <f>A8/F8</f>
+        <f t="shared" si="0"/>
         <v>0.27</v>
       </c>
       <c r="C8" s="1">
@@ -2252,7 +2281,7 @@
         <v>1372694.04999999</v>
       </c>
       <c r="B9" s="2">
-        <f>A9/F9</f>
+        <f t="shared" si="0"/>
         <v>0.45499999999999668</v>
       </c>
       <c r="C9" s="1">
@@ -2288,7 +2317,7 @@
         <v>2802189.6</v>
       </c>
       <c r="B10" s="2">
-        <f>A10/F10</f>
+        <f t="shared" si="0"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="C10" s="1">
@@ -2324,7 +2353,7 @@
         <v>2619400</v>
       </c>
       <c r="B11" s="2">
-        <f>A11/F11</f>
+        <f t="shared" si="0"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="C11" s="1">
@@ -2360,7 +2389,7 @@
         <v>137088</v>
       </c>
       <c r="B12" s="2">
-        <f>A12/F12</f>
+        <f t="shared" si="0"/>
         <v>0.42</v>
       </c>
       <c r="C12" s="1">
@@ -2396,7 +2425,7 @@
         <v>496234</v>
       </c>
       <c r="B13" s="2">
-        <f>A13/F13</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="C13" s="1">
@@ -2432,7 +2461,7 @@
         <v>37328</v>
       </c>
       <c r="B14" s="2">
-        <f>A14/F14</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="C14" s="1">
@@ -2468,7 +2497,7 @@
         <v>398215.2</v>
       </c>
       <c r="B15" s="2">
-        <f>A15/F15</f>
+        <f t="shared" si="0"/>
         <v>0.24000000000000002</v>
       </c>
       <c r="C15" s="1">
@@ -2504,7 +2533,7 @@
         <v>289061.5</v>
       </c>
       <c r="B16" s="2">
-        <f>A16/F16</f>
+        <f t="shared" si="0"/>
         <v>0.45500000000000002</v>
       </c>
       <c r="C16" s="1">
@@ -2540,7 +2569,7 @@
         <v>262872</v>
       </c>
       <c r="B17" s="2">
-        <f>A17/F17</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="C17" s="1">
@@ -2576,7 +2605,7 @@
         <v>43035.299999999901</v>
       </c>
       <c r="B18" s="2">
-        <f>A18/F18</f>
+        <f t="shared" si="0"/>
         <v>0.13499999999999968</v>
       </c>
       <c r="C18" s="1">
@@ -2612,7 +2641,7 @@
         <v>55233.2</v>
       </c>
       <c r="B19" s="2">
-        <f>A19/F19</f>
+        <f t="shared" si="0"/>
         <v>0.22</v>
       </c>
       <c r="C19" s="1">
@@ -2648,7 +2677,7 @@
         <v>20488.8</v>
       </c>
       <c r="B20" s="2">
-        <f>A20/F20</f>
+        <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
       <c r="C20" s="1">
@@ -2684,7 +2713,7 @@
         <v>74615.099999999904</v>
       </c>
       <c r="B21" s="2">
-        <f>A21/F21</f>
+        <f t="shared" si="0"/>
         <v>0.20999999999999974</v>
       </c>
       <c r="C21" s="1">
@@ -2720,7 +2749,7 @@
         <v>15972</v>
       </c>
       <c r="B22" s="2">
-        <f>A22/F22</f>
+        <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
       <c r="C22" s="1">
@@ -2756,7 +2785,7 @@
         <v>57840.5</v>
       </c>
       <c r="B23" s="2">
-        <f>A23/F23</f>
+        <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C23" s="1">
@@ -2792,7 +2821,7 @@
         <v>44514.6</v>
       </c>
       <c r="B24" s="2">
-        <f>A24/F24</f>
+        <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
       <c r="C24" s="1">
@@ -2828,7 +2857,7 @@
         <v>2197.25</v>
       </c>
       <c r="B25" s="2">
-        <f>A25/F25</f>
+        <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C25" s="1">
@@ -2864,7 +2893,7 @@
         <v>145992</v>
       </c>
       <c r="B26" s="2">
-        <f>A26/F26</f>
+        <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
       <c r="C26" s="1">
@@ -2900,7 +2929,7 @@
         <v>53984</v>
       </c>
       <c r="B27" s="2">
-        <f>A27/F27</f>
+        <f t="shared" si="0"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C27" s="1">
@@ -2936,7 +2965,7 @@
         <v>133620</v>
       </c>
       <c r="B28" s="2">
-        <f>A28/F28</f>
+        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
       <c r="C28" s="1">
@@ -2972,7 +3001,7 @@
         <v>424839</v>
       </c>
       <c r="B29" s="2">
-        <f>A29/F29</f>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="C29" s="1">
@@ -3008,7 +3037,7 @@
         <v>96620.299999999901</v>
       </c>
       <c r="B30" s="2">
-        <f>A30/F30</f>
+        <f t="shared" si="0"/>
         <v>6.9999999999999923E-2</v>
       </c>
       <c r="C30" s="1">
@@ -3044,7 +3073,7 @@
         <v>104441</v>
       </c>
       <c r="B31" s="2">
-        <f>A31/F31</f>
+        <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C31" s="1">
@@ -3080,7 +3109,7 @@
         <v>48865</v>
       </c>
       <c r="B32" s="2">
-        <f>A32/F32</f>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="C32" s="1">
@@ -3116,7 +3145,7 @@
         <v>31872.1499999999</v>
       </c>
       <c r="B33" s="2">
-        <f>A33/F33</f>
+        <f t="shared" si="0"/>
         <v>0.13499999999999956</v>
       </c>
       <c r="C33" s="1">
@@ -3152,7 +3181,7 @@
         <v>86273</v>
       </c>
       <c r="B34" s="2">
-        <f>A34/F34</f>
+        <f t="shared" ref="B34:B65" si="1">A34/F34</f>
         <v>0.05</v>
       </c>
       <c r="C34" s="1">
@@ -3188,7 +3217,7 @@
         <v>154753.5</v>
       </c>
       <c r="B35" s="2">
-        <f>A35/F35</f>
+        <f t="shared" si="1"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="C35" s="1">
@@ -3224,7 +3253,7 @@
         <v>95006.799999999901</v>
       </c>
       <c r="B36" s="2">
-        <f>A36/F36</f>
+        <f t="shared" si="1"/>
         <v>0.13999999999999985</v>
       </c>
       <c r="C36" s="1">
@@ -3260,7 +3289,7 @@
         <v>10532</v>
       </c>
       <c r="B37" s="2">
-        <f>A37/F37</f>
+        <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
       <c r="C37" s="1">
@@ -3296,7 +3325,7 @@
         <v>99278.549999999901</v>
       </c>
       <c r="B38" s="2">
-        <f>A38/F38</f>
+        <f t="shared" si="1"/>
         <v>0.15749999999999983</v>
       </c>
       <c r="C38" s="1">
@@ -3332,7 +3361,7 @@
         <v>61508.7</v>
       </c>
       <c r="B39" s="2">
-        <f>A39/F39</f>
+        <f t="shared" si="1"/>
         <v>0.26999999999999996</v>
       </c>
       <c r="C39" s="1">
@@ -3368,7 +3397,7 @@
         <v>180861.4</v>
       </c>
       <c r="B40" s="2">
-        <f>A40/F40</f>
+        <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
       <c r="C40" s="1">
@@ -3404,7 +3433,7 @@
         <v>149131.75</v>
       </c>
       <c r="B41" s="2">
-        <f>A41/F41</f>
+        <f t="shared" si="1"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C41" s="1">
@@ -3440,7 +3469,7 @@
         <v>147480</v>
       </c>
       <c r="B42" s="2">
-        <f>A42/F42</f>
+        <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
       <c r="C42" s="1">
@@ -3476,7 +3505,7 @@
         <v>4807.5</v>
       </c>
       <c r="B43" s="2">
-        <f>A43/F43</f>
+        <f t="shared" si="1"/>
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="C43" s="1">
@@ -3512,7 +3541,7 @@
         <v>101884.65</v>
       </c>
       <c r="B44" s="2">
-        <f>A44/F44</f>
+        <f t="shared" si="1"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C44" s="1">
@@ -3548,7 +3577,7 @@
         <v>48897</v>
       </c>
       <c r="B45" s="2">
-        <f>A45/F45</f>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="C45" s="1">
@@ -3584,7 +3613,7 @@
         <v>2820.9</v>
       </c>
       <c r="B46" s="2">
-        <f>A46/F46</f>
+        <f t="shared" si="1"/>
         <v>1.5000000000000001E-2</v>
       </c>
       <c r="C46" s="1">
@@ -3620,7 +3649,7 @@
         <v>34291</v>
       </c>
       <c r="B47" s="2">
-        <f>A47/F47</f>
+        <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
       <c r="C47" s="1">
@@ -3656,7 +3685,7 @@
         <v>103128.3</v>
       </c>
       <c r="B48" s="2">
-        <f>A48/F48</f>
+        <f t="shared" si="1"/>
         <v>3.0000000000000002E-2</v>
       </c>
       <c r="C48" s="1">
@@ -3692,7 +3721,7 @@
         <v>10639.8</v>
       </c>
       <c r="B49" s="2">
-        <f>A49/F49</f>
+        <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
       <c r="C49" s="1">
@@ -3728,7 +3757,7 @@
         <v>3382.5</v>
       </c>
       <c r="B50" s="2">
-        <f>A50/F50</f>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="C50" s="1">
@@ -3764,7 +3793,7 @@
         <v>34832.400000000001</v>
       </c>
       <c r="B51" s="2">
-        <f>A51/F51</f>
+        <f t="shared" si="1"/>
         <v>3.0000000000000002E-2</v>
       </c>
       <c r="C51" s="1">
@@ -3800,7 +3829,7 @@
         <v>31672.400000000001</v>
       </c>
       <c r="B52" s="2">
-        <f>A52/F52</f>
+        <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
       <c r="C52" s="1">
@@ -3836,7 +3865,7 @@
         <v>250292.4</v>
       </c>
       <c r="B53" s="2">
-        <f>A53/F53</f>
+        <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
       <c r="C53" s="1">
@@ -3872,7 +3901,7 @@
         <v>39894.299999999901</v>
       </c>
       <c r="B54" s="2">
-        <f>A54/F54</f>
+        <f t="shared" si="1"/>
         <v>2.9999999999999926E-2</v>
       </c>
       <c r="C54" s="1">
@@ -3908,7 +3937,7 @@
         <v>246516.9</v>
       </c>
       <c r="B55" s="2">
-        <f>A55/F55</f>
+        <f t="shared" si="1"/>
         <v>6.9999999999999993E-2</v>
       </c>
       <c r="C55" s="1">
@@ -3944,7 +3973,7 @@
         <v>126184</v>
       </c>
       <c r="B56" s="2">
-        <f>A56/F56</f>
+        <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
       <c r="C56" s="1">
@@ -3980,7 +4009,7 @@
         <v>40618.5</v>
       </c>
       <c r="B57" s="2">
-        <f>A57/F57</f>
+        <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
       <c r="C57" s="1">
@@ -4016,7 +4045,7 @@
         <v>258981</v>
       </c>
       <c r="B58" s="2">
-        <f>A58/F58</f>
+        <f t="shared" si="1"/>
         <v>0.06</v>
       </c>
       <c r="C58" s="1">
@@ -4052,7 +4081,7 @@
         <v>12990.15</v>
       </c>
       <c r="B59" s="2">
-        <f>A59/F59</f>
+        <f t="shared" si="1"/>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="C59" s="1">
@@ -4088,7 +4117,7 @@
         <v>181591.19999999899</v>
       </c>
       <c r="B60" s="2">
-        <f>A60/F60</f>
+        <f t="shared" si="1"/>
         <v>5.9999999999999665E-2</v>
       </c>
       <c r="C60" s="1">
@@ -4124,7 +4153,7 @@
         <v>60069.599999999999</v>
       </c>
       <c r="B61" s="2">
-        <f>A61/F61</f>
+        <f t="shared" si="1"/>
         <v>0.06</v>
       </c>
       <c r="C61" s="1">
@@ -4160,7 +4189,7 @@
         <v>28356.5</v>
       </c>
       <c r="B62" s="2">
-        <f>A62/F62</f>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="C62" s="1">
@@ -4196,7 +4225,7 @@
         <v>4108.8</v>
       </c>
       <c r="B63" s="2">
-        <f>A63/F63</f>
+        <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
       <c r="C63" s="1">
@@ -4232,7 +4261,7 @@
         <v>5487.6</v>
       </c>
       <c r="B64" s="2">
-        <f>A64/F64</f>
+        <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
       <c r="C64" s="1">
@@ -4268,7 +4297,7 @@
         <v>24259.05</v>
       </c>
       <c r="B65" s="2">
-        <f>A65/F65</f>
+        <f t="shared" si="1"/>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="C65" s="1">
@@ -4304,7 +4333,7 @@
         <v>956.55</v>
       </c>
       <c r="B66" s="2">
-        <f>A66/F66</f>
+        <f t="shared" ref="B66:B97" si="2">A66/F66</f>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C66" s="1">
@@ -4340,7 +4369,7 @@
         <v>5212.1000000000004</v>
       </c>
       <c r="B67" s="2">
-        <f>A67/F67</f>
+        <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
       <c r="C67" s="1">
@@ -4376,7 +4405,7 @@
         <v>2564.8000000000002</v>
       </c>
       <c r="B68" s="2">
-        <f>A68/F68</f>
+        <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
       <c r="C68" s="1">
@@ -4412,7 +4441,7 @@
         <v>1235.3999999999901</v>
       </c>
       <c r="B69" s="2">
-        <f>A69/F69</f>
+        <f t="shared" si="2"/>
         <v>2.9999999999999759E-2</v>
       </c>
       <c r="C69" s="1">
@@ -4448,7 +4477,7 @@
         <v>5632.3</v>
       </c>
       <c r="B70" s="2">
-        <f>A70/F70</f>
+        <f t="shared" si="2"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C70" s="1">
@@ -4484,7 +4513,7 @@
         <v>1054660</v>
       </c>
       <c r="B71" s="2">
-        <f>A71/F71</f>
+        <f t="shared" si="2"/>
         <v>0.08</v>
       </c>
       <c r="C71" s="1">
@@ -4520,7 +4549,7 @@
         <v>100101</v>
       </c>
       <c r="B72" s="2">
-        <f>A72/F72</f>
+        <f t="shared" si="2"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="C72" s="1">
@@ -4556,7 +4585,7 @@
         <v>1061891.5999999901</v>
       </c>
       <c r="B73" s="2">
-        <f>A73/F73</f>
+        <f t="shared" si="2"/>
         <v>0.13999999999999868</v>
       </c>
       <c r="C73" s="1">
@@ -4592,7 +4621,7 @@
         <v>254910</v>
       </c>
       <c r="B74" s="2">
-        <f>A74/F74</f>
+        <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
       <c r="C74" s="1">
@@ -4628,7 +4657,7 @@
         <v>328488.3</v>
       </c>
       <c r="B75" s="2">
-        <f>A75/F75</f>
+        <f t="shared" si="2"/>
         <v>0.21</v>
       </c>
       <c r="C75" s="1">
@@ -4664,7 +4693,7 @@
         <v>57515</v>
       </c>
       <c r="B76" s="2">
-        <f>A76/F76</f>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="C76" s="1">
@@ -4700,7 +4729,7 @@
         <v>7843403.3999999901</v>
       </c>
       <c r="B77" s="2">
-        <f>A77/F77</f>
+        <f t="shared" si="2"/>
         <v>0.41999999999999948</v>
       </c>
       <c r="C77" s="1">
@@ -4736,7 +4765,7 @@
         <v>358905.59999999998</v>
       </c>
       <c r="B78" s="2">
-        <f>A78/F78</f>
+        <f t="shared" si="2"/>
         <v>0.24</v>
       </c>
       <c r="C78" s="1">
@@ -4772,7 +4801,7 @@
         <v>31356.5</v>
       </c>
       <c r="B79" s="2">
-        <f>A79/F79</f>
+        <f t="shared" si="2"/>
         <v>0.59499999999999997</v>
       </c>
       <c r="C79" s="1">
@@ -4808,7 +4837,7 @@
         <v>1680351.3999999899</v>
       </c>
       <c r="B80" s="2">
-        <f>A80/F80</f>
+        <f t="shared" si="2"/>
         <v>0.59499999999999642</v>
       </c>
       <c r="C80" s="1">
@@ -4844,7 +4873,7 @@
         <v>3341496.1999999899</v>
       </c>
       <c r="B81" s="2">
-        <f>A81/F81</f>
+        <f t="shared" si="2"/>
         <v>0.5949999999999982</v>
       </c>
       <c r="C81" s="1">
@@ -4880,7 +4909,7 @@
         <v>1107168</v>
       </c>
       <c r="B82" s="2">
-        <f>A82/F82</f>
+        <f t="shared" si="2"/>
         <v>0.48</v>
       </c>
       <c r="C82" s="1">
@@ -4916,7 +4945,7 @@
         <v>1760925.6</v>
       </c>
       <c r="B83" s="2">
-        <f>A83/F83</f>
+        <f t="shared" si="2"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="C83" s="1">
@@ -4952,7 +4981,7 @@
         <v>1358880.5999999901</v>
       </c>
       <c r="B84" s="2">
-        <f>A84/F84</f>
+        <f t="shared" si="2"/>
         <v>0.41999999999999693</v>
       </c>
       <c r="C84" s="1">
@@ -4988,7 +5017,7 @@
         <v>48483.75</v>
       </c>
       <c r="B85" s="2">
-        <f>A85/F85</f>
+        <f t="shared" si="2"/>
         <v>0.105</v>
       </c>
       <c r="C85" s="1">
@@ -5024,7 +5053,7 @@
         <v>2490.2999999999902</v>
       </c>
       <c r="B86" s="2">
-        <f>A86/F86</f>
+        <f t="shared" si="2"/>
         <v>8.999999999999965E-2</v>
       </c>
       <c r="C86" s="1">
@@ -5060,7 +5089,7 @@
         <v>33192.5</v>
       </c>
       <c r="B87" s="2">
-        <f>A87/F87</f>
+        <f t="shared" si="2"/>
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="C87" s="1">
@@ -5096,7 +5125,7 @@
         <v>2569.7999999999902</v>
       </c>
       <c r="B88" s="2">
-        <f>A88/F88</f>
+        <f t="shared" si="2"/>
         <v>5.9999999999999769E-2</v>
       </c>
       <c r="C88" s="1">
@@ -5132,7 +5161,7 @@
         <v>364531.20000000001</v>
       </c>
       <c r="B89" s="2">
-        <f>A89/F89</f>
+        <f t="shared" si="2"/>
         <v>6.0000000000000005E-2</v>
       </c>
       <c r="C89" s="1">
@@ -5168,7 +5197,7 @@
         <v>43254</v>
       </c>
       <c r="B90" s="2">
-        <f>A90/F90</f>
+        <f t="shared" si="2"/>
         <v>0.06</v>
       </c>
       <c r="C90" s="1">
@@ -5204,7 +5233,7 @@
         <v>180392.8</v>
       </c>
       <c r="B91" s="2">
-        <f>A91/F91</f>
+        <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
       <c r="C91" s="1">
@@ -5240,7 +5269,7 @@
         <v>12144.6</v>
       </c>
       <c r="B92" s="2">
-        <f>A92/F92</f>
+        <f t="shared" si="2"/>
         <v>6.0000000000000005E-2</v>
       </c>
       <c r="C92" s="1">
@@ -5276,7 +5305,7 @@
         <v>26797.8</v>
       </c>
       <c r="B93" s="2">
-        <f>A93/F93</f>
+        <f t="shared" si="2"/>
         <v>0.06</v>
       </c>
       <c r="C93" s="1">
@@ -5312,7 +5341,7 @@
         <v>23490</v>
       </c>
       <c r="B94" s="2">
-        <f>A94/F94</f>
+        <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
       <c r="C94" s="1">
@@ -5348,7 +5377,7 @@
         <v>524106</v>
       </c>
       <c r="B95" s="2">
-        <f>A95/F95</f>
+        <f t="shared" si="2"/>
         <v>0.09</v>
       </c>
       <c r="C95" s="1">
@@ -5384,7 +5413,7 @@
         <v>83857.5</v>
       </c>
       <c r="B96" s="2">
-        <f>A96/F96</f>
+        <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
       <c r="C96" s="1">
@@ -5420,7 +5449,7 @@
         <v>69470.799999999901</v>
       </c>
       <c r="B97" s="2">
-        <f>A97/F97</f>
+        <f t="shared" si="2"/>
         <v>0.13999999999999979</v>
       </c>
       <c r="C97" s="1">
@@ -5456,7 +5485,7 @@
         <v>172785.9</v>
       </c>
       <c r="B98" s="2">
-        <f>A98/F98</f>
+        <f t="shared" ref="B98:B129" si="3">A98/F98</f>
         <v>0.105</v>
       </c>
       <c r="C98" s="1">
@@ -5492,7 +5521,7 @@
         <v>327867.75</v>
       </c>
       <c r="B99" s="2">
-        <f>A99/F99</f>
+        <f t="shared" si="3"/>
         <v>0.105</v>
       </c>
       <c r="C99" s="1">
@@ -5528,7 +5557,7 @@
         <v>1114219.95</v>
       </c>
       <c r="B100" s="2">
-        <f>A100/F100</f>
+        <f t="shared" si="3"/>
         <v>0.1275</v>
       </c>
       <c r="C100" s="1">
@@ -5564,7 +5593,7 @@
         <v>79191.599999999904</v>
       </c>
       <c r="B101" s="2">
-        <f>A101/F101</f>
+        <f t="shared" si="3"/>
         <v>0.11999999999999986</v>
       </c>
       <c r="C101" s="1">
@@ -5600,7 +5629,7 @@
         <v>242748.52499999999</v>
       </c>
       <c r="B102" s="2">
-        <f>A102/F102</f>
+        <f t="shared" si="3"/>
         <v>0.1275</v>
       </c>
       <c r="C102" s="1">
@@ -5636,7 +5665,7 @@
         <v>64630.400000000001</v>
       </c>
       <c r="B103" s="2">
-        <f>A103/F103</f>
+        <f t="shared" si="3"/>
         <v>0.08</v>
       </c>
       <c r="C103" s="1">
@@ -5672,7 +5701,7 @@
         <v>197310</v>
       </c>
       <c r="B104" s="2">
-        <f>A104/F104</f>
+        <f t="shared" si="3"/>
         <v>0.12</v>
       </c>
       <c r="C104" s="1">
@@ -5708,7 +5737,7 @@
         <v>34284.800000000003</v>
       </c>
       <c r="B105" s="2">
-        <f>A105/F105</f>
+        <f t="shared" si="3"/>
         <v>0.16</v>
       </c>
       <c r="C105" s="1">
@@ -5744,7 +5773,7 @@
         <v>37487.199999999997</v>
       </c>
       <c r="B106" s="2">
-        <f>A106/F106</f>
+        <f t="shared" si="3"/>
         <v>7.9999999999999988E-2</v>
       </c>
       <c r="C106" s="1">
@@ -5780,7 +5809,7 @@
         <v>13873.8</v>
       </c>
       <c r="B107" s="2">
-        <f>A107/F107</f>
+        <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
       <c r="C107" s="1">
@@ -5816,7 +5845,7 @@
         <v>77551.600000000006</v>
       </c>
       <c r="B108" s="2">
-        <f>A108/F108</f>
+        <f t="shared" si="3"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="C108" s="1">
@@ -5852,7 +5881,7 @@
         <v>322822.34999999998</v>
       </c>
       <c r="B109" s="2">
-        <f>A109/F109</f>
+        <f t="shared" si="3"/>
         <v>0.1275</v>
       </c>
       <c r="C109" s="1">
@@ -5888,7 +5917,7 @@
         <v>1728958.65</v>
       </c>
       <c r="B110" s="2">
-        <f>A110/F110</f>
+        <f t="shared" si="3"/>
         <v>0.1275</v>
       </c>
       <c r="C110" s="1">
@@ -5924,7 +5953,7 @@
         <v>125939.099999999</v>
       </c>
       <c r="B111" s="2">
-        <f>A111/F111</f>
+        <f t="shared" si="3"/>
         <v>0.20999999999999833</v>
       </c>
       <c r="C111" s="1">
@@ -5960,7 +5989,7 @@
         <v>39594.799999999901</v>
       </c>
       <c r="B112" s="2">
-        <f>A112/F112</f>
+        <f t="shared" si="3"/>
         <v>0.13999999999999965</v>
       </c>
       <c r="C112" s="1">
@@ -5996,7 +6025,7 @@
         <v>366837.89999999898</v>
       </c>
       <c r="B113" s="2">
-        <f>A113/F113</f>
+        <f t="shared" si="3"/>
         <v>8.4999999999999756E-2</v>
       </c>
       <c r="C113" s="1">
@@ -6032,7 +6061,7 @@
         <v>16899.2</v>
       </c>
       <c r="B114" s="2">
-        <f>A114/F114</f>
+        <f t="shared" si="3"/>
         <v>0.16</v>
       </c>
       <c r="C114" s="1">
@@ -6068,7 +6097,7 @@
         <v>5264</v>
       </c>
       <c r="B115" s="2">
-        <f>A115/F115</f>
+        <f t="shared" si="3"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C115" s="1">
@@ -6104,7 +6133,7 @@
         <v>24208.85</v>
       </c>
       <c r="B116" s="2">
-        <f>A116/F116</f>
+        <f t="shared" si="3"/>
         <v>8.4999999999999992E-2</v>
       </c>
       <c r="C116" s="1">
@@ -6140,7 +6169,7 @@
         <v>671207.6</v>
       </c>
       <c r="B117" s="2">
-        <f>A117/F117</f>
+        <f t="shared" si="3"/>
         <v>8.4999999999999992E-2</v>
       </c>
       <c r="C117" s="1">
@@ -6196,30 +6225,6 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -6247,6 +6252,4340 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBB5165-BB5F-4E3D-9EB0-42E560CC7225}">
+  <dimension ref="A1:M102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="F103" sqref="F103"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="86.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="51.140625" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>359</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>253317.4</v>
+      </c>
+      <c r="B2" s="2">
+        <f t="shared" ref="B2:B50" si="0">A2/F2</f>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3365502.6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3618820</v>
+      </c>
+      <c r="G2">
+        <v>0.05</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>0.6</v>
+      </c>
+      <c r="J2">
+        <v>0.35</v>
+      </c>
+      <c r="K2">
+        <v>0.2</v>
+      </c>
+      <c r="L2">
+        <f>K2*F2</f>
+        <v>723764</v>
+      </c>
+      <c r="M2" s="1">
+        <f>F2-L2</f>
+        <v>2895056</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>102636.45</v>
+      </c>
+      <c r="B3" s="2">
+        <f t="shared" si="0"/>
+        <v>0.105</v>
+      </c>
+      <c r="C3" s="1">
+        <v>874853.55</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1">
+        <v>977490</v>
+      </c>
+      <c r="G3">
+        <v>0.05</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3">
+        <v>0.6</v>
+      </c>
+      <c r="J3">
+        <v>0.35</v>
+      </c>
+      <c r="K3">
+        <v>0.3</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L66" si="1">K3*F3</f>
+        <v>293247</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M66" si="2">F3-L3</f>
+        <v>684243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>626942.69999999995</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.26999999999999996</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1695067.3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2322010</v>
+      </c>
+      <c r="G4">
+        <v>0.05</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4">
+        <v>0.5</v>
+      </c>
+      <c r="J4">
+        <v>0.45</v>
+      </c>
+      <c r="K4">
+        <v>0.6</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>1393206</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="2"/>
+        <v>928804</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>176545.2</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000005E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2765874.8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2942420</v>
+      </c>
+      <c r="G5">
+        <v>0.1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5">
+        <v>0.6</v>
+      </c>
+      <c r="J5">
+        <v>0.3</v>
+      </c>
+      <c r="K5">
+        <v>0.2</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>588484</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="2"/>
+        <v>2353936</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1798418.7</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.27</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4862391.3</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1">
+        <v>6660810</v>
+      </c>
+      <c r="G6">
+        <v>0.05</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6">
+        <v>0.5</v>
+      </c>
+      <c r="J6">
+        <v>0.45</v>
+      </c>
+      <c r="K6">
+        <v>0.6</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>3996486</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="2"/>
+        <v>2664324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1372694.04999999</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.45499999999999668</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1644215.95</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3016910</v>
+      </c>
+      <c r="G7">
+        <v>0.05</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7">
+        <v>0.3</v>
+      </c>
+      <c r="J7">
+        <v>0.65</v>
+      </c>
+      <c r="K7">
+        <v>0.7</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>2111837</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="2"/>
+        <v>905073</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2619400</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2058100</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4677500</v>
+      </c>
+      <c r="G8">
+        <v>0.05</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8">
+        <v>0.25</v>
+      </c>
+      <c r="J8">
+        <v>0.7</v>
+      </c>
+      <c r="K8">
+        <v>0.8</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>3742000</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="2"/>
+        <v>935500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>137088</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.42</v>
+      </c>
+      <c r="C9" s="1">
+        <v>189312</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="1">
+        <v>326400</v>
+      </c>
+      <c r="G9">
+        <v>0.05</v>
+      </c>
+      <c r="H9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9">
+        <v>0.25</v>
+      </c>
+      <c r="J9">
+        <v>0.7</v>
+      </c>
+      <c r="K9">
+        <v>0.6</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>195840</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="2"/>
+        <v>130560</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>37328</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>149312</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="1">
+        <v>186640</v>
+      </c>
+      <c r="G10">
+        <v>0.2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10">
+        <v>0.3</v>
+      </c>
+      <c r="J10">
+        <v>0.5</v>
+      </c>
+      <c r="K10">
+        <v>0.4</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>74656</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="2"/>
+        <v>111984</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>398215.2</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.24000000000000002</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1261014.8</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1659230</v>
+      </c>
+      <c r="G11">
+        <v>0.1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11">
+        <v>0.3</v>
+      </c>
+      <c r="J11">
+        <v>0.6</v>
+      </c>
+      <c r="K11">
+        <v>0.4</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>663692</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="2"/>
+        <v>995538</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>289061.5</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="C12" s="1">
+        <v>346238.5</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="1">
+        <v>635300</v>
+      </c>
+      <c r="G12">
+        <v>0.15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12">
+        <v>0.2</v>
+      </c>
+      <c r="J12">
+        <v>0.65</v>
+      </c>
+      <c r="K12">
+        <v>0.7</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>444710</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="2"/>
+        <v>190590</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43035.299999999901</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13499999999999968</v>
+      </c>
+      <c r="C13" s="1">
+        <v>275744.7</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="1">
+        <v>318780</v>
+      </c>
+      <c r="G13">
+        <v>0.15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13">
+        <v>0.4</v>
+      </c>
+      <c r="J13">
+        <v>0.45</v>
+      </c>
+      <c r="K13">
+        <v>0.3</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>95634</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="2"/>
+        <v>223146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>55233.2</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.22</v>
+      </c>
+      <c r="C14" s="1">
+        <v>195826.8</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="1">
+        <v>251060</v>
+      </c>
+      <c r="G14">
+        <v>0.15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14">
+        <v>0.3</v>
+      </c>
+      <c r="J14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K14">
+        <v>0.4</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>100424</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="2"/>
+        <v>150636</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>20488.8</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="C15" s="1">
+        <v>235621.2</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="1">
+        <v>256110</v>
+      </c>
+      <c r="G15">
+        <v>0.1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15">
+        <v>0.5</v>
+      </c>
+      <c r="J15">
+        <v>0.4</v>
+      </c>
+      <c r="K15">
+        <v>0.2</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>51222</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="2"/>
+        <v>204888</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>74615.099999999904</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20999999999999974</v>
+      </c>
+      <c r="C16" s="1">
+        <v>280694.90000000002</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="1">
+        <v>355310</v>
+      </c>
+      <c r="G16">
+        <v>0.25</v>
+      </c>
+      <c r="H16" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16">
+        <v>0.4</v>
+      </c>
+      <c r="J16">
+        <v>0.35</v>
+      </c>
+      <c r="K16">
+        <v>0.6</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>213186</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="2"/>
+        <v>142124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15972</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="C17" s="1">
+        <v>117128</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="1">
+        <v>133100</v>
+      </c>
+      <c r="G17">
+        <v>0.2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17">
+        <v>0.4</v>
+      </c>
+      <c r="J17">
+        <v>0.4</v>
+      </c>
+      <c r="K17">
+        <v>0.3</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>39930</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="2"/>
+        <v>93170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>44514.6</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2181215.4</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2225730</v>
+      </c>
+      <c r="G18">
+        <v>0.1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18">
+        <v>0.7</v>
+      </c>
+      <c r="J18">
+        <v>0.2</v>
+      </c>
+      <c r="K18">
+        <v>0.1</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>222573</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="2"/>
+        <v>2003157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>2197.25</v>
+      </c>
+      <c r="B19" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>85692.75</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="1">
+        <v>87890</v>
+      </c>
+      <c r="G19">
+        <v>0.15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19">
+        <v>0.6</v>
+      </c>
+      <c r="J19">
+        <v>0.25</v>
+      </c>
+      <c r="K19">
+        <v>0.1</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>8789</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="2"/>
+        <v>79101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>53984</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>717216</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="1">
+        <v>771200</v>
+      </c>
+      <c r="G20">
+        <v>0.05</v>
+      </c>
+      <c r="H20" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20">
+        <v>0.6</v>
+      </c>
+      <c r="J20">
+        <v>0.35</v>
+      </c>
+      <c r="K20">
+        <v>0.2</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>154240</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="2"/>
+        <v>616960</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>133620</v>
+      </c>
+      <c r="B21" s="2">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="C21" s="1">
+        <v>311780</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="1">
+        <v>445400</v>
+      </c>
+      <c r="G21">
+        <v>0.1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>87</v>
+      </c>
+      <c r="I21">
+        <v>0.4</v>
+      </c>
+      <c r="J21">
+        <v>0.5</v>
+      </c>
+      <c r="K21">
+        <v>0.6</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>267240</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="2"/>
+        <v>178160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>96620.299999999901</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" si="0"/>
+        <v>6.9999999999999923E-2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1283669.7</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1380290</v>
+      </c>
+      <c r="G22">
+        <v>0.05</v>
+      </c>
+      <c r="H22" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22">
+        <v>0.6</v>
+      </c>
+      <c r="J22">
+        <v>0.35</v>
+      </c>
+      <c r="K22">
+        <v>0.2</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>276058</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="2"/>
+        <v>1104232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>104441</v>
+      </c>
+      <c r="B23" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4073199</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="1">
+        <v>4177640</v>
+      </c>
+      <c r="G23">
+        <v>0.15</v>
+      </c>
+      <c r="H23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23">
+        <v>0.6</v>
+      </c>
+      <c r="J23">
+        <v>0.25</v>
+      </c>
+      <c r="K23">
+        <v>0.1</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>417764</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="2"/>
+        <v>3759876</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>48865</v>
+      </c>
+      <c r="B24" s="2">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="C24" s="1">
+        <v>928435</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="1">
+        <v>977300</v>
+      </c>
+      <c r="G24">
+        <v>0.15</v>
+      </c>
+      <c r="H24" t="s">
+        <v>99</v>
+      </c>
+      <c r="I24">
+        <v>0.6</v>
+      </c>
+      <c r="J24">
+        <v>0.25</v>
+      </c>
+      <c r="K24">
+        <v>0.2</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>195460</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="2"/>
+        <v>781840</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>31872.1499999999</v>
+      </c>
+      <c r="B25" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13499999999999956</v>
+      </c>
+      <c r="C25" s="1">
+        <v>204217.85</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="1">
+        <v>236090</v>
+      </c>
+      <c r="G25">
+        <v>0.15</v>
+      </c>
+      <c r="H25" t="s">
+        <v>102</v>
+      </c>
+      <c r="I25">
+        <v>0.4</v>
+      </c>
+      <c r="J25">
+        <v>0.45</v>
+      </c>
+      <c r="K25">
+        <v>0.3</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>70827</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="2"/>
+        <v>165263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>86273</v>
+      </c>
+      <c r="B26" s="2">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1639187</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1725460</v>
+      </c>
+      <c r="G26">
+        <v>0.15</v>
+      </c>
+      <c r="H26" t="s">
+        <v>105</v>
+      </c>
+      <c r="I26">
+        <v>0.6</v>
+      </c>
+      <c r="J26">
+        <v>0.25</v>
+      </c>
+      <c r="K26">
+        <v>0.2</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>345092</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="2"/>
+        <v>1380368</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>95006.799999999901</v>
+      </c>
+      <c r="B27" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13999999999999985</v>
+      </c>
+      <c r="C27" s="1">
+        <v>583613.19999999995</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="1">
+        <v>678620</v>
+      </c>
+      <c r="G27">
+        <v>0.35</v>
+      </c>
+      <c r="H27" t="s">
+        <v>111</v>
+      </c>
+      <c r="I27">
+        <v>0.3</v>
+      </c>
+      <c r="J27">
+        <v>0.35</v>
+      </c>
+      <c r="K27">
+        <v>0.4</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="1"/>
+        <v>271448</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" si="2"/>
+        <v>407172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>10532</v>
+      </c>
+      <c r="B28" s="2">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="C28" s="1">
+        <v>516068</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="1">
+        <v>526600</v>
+      </c>
+      <c r="G28">
+        <v>0.6</v>
+      </c>
+      <c r="H28" t="s">
+        <v>114</v>
+      </c>
+      <c r="I28">
+        <v>0.3</v>
+      </c>
+      <c r="J28">
+        <v>0.1</v>
+      </c>
+      <c r="K28">
+        <v>0.2</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>105320</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="2"/>
+        <v>421280</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>99278.549999999901</v>
+      </c>
+      <c r="B29" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15749999999999983</v>
+      </c>
+      <c r="C29" s="1">
+        <v>531061.44999999995</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="1">
+        <v>630340</v>
+      </c>
+      <c r="G29">
+        <v>0.15</v>
+      </c>
+      <c r="H29" t="s">
+        <v>117</v>
+      </c>
+      <c r="I29">
+        <v>0.4</v>
+      </c>
+      <c r="J29">
+        <v>0.45</v>
+      </c>
+      <c r="K29">
+        <v>0.35</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>220619</v>
+      </c>
+      <c r="M29" s="1">
+        <f t="shared" si="2"/>
+        <v>409721</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>61508.7</v>
+      </c>
+      <c r="B30" s="2">
+        <f t="shared" si="0"/>
+        <v>0.26999999999999996</v>
+      </c>
+      <c r="C30" s="1">
+        <v>166301.29999999999</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="1">
+        <v>227810</v>
+      </c>
+      <c r="G30">
+        <v>0.15</v>
+      </c>
+      <c r="H30" t="s">
+        <v>120</v>
+      </c>
+      <c r="I30">
+        <v>0.4</v>
+      </c>
+      <c r="J30">
+        <v>0.45</v>
+      </c>
+      <c r="K30">
+        <v>0.6</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="1"/>
+        <v>136686</v>
+      </c>
+      <c r="M30" s="1">
+        <f t="shared" si="2"/>
+        <v>91124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>149131.75</v>
+      </c>
+      <c r="B31" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C31" s="1">
+        <v>5816138.25</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="1">
+        <v>5965270</v>
+      </c>
+      <c r="G31">
+        <v>0.45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>126</v>
+      </c>
+      <c r="I31">
+        <v>0.3</v>
+      </c>
+      <c r="J31">
+        <v>0.25</v>
+      </c>
+      <c r="K31">
+        <v>0.1</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="1"/>
+        <v>596527</v>
+      </c>
+      <c r="M31" s="1">
+        <f t="shared" si="2"/>
+        <v>5368743</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>147480</v>
+      </c>
+      <c r="B32" s="2">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2802120</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2949600</v>
+      </c>
+      <c r="G32">
+        <v>0.45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>129</v>
+      </c>
+      <c r="I32">
+        <v>0.3</v>
+      </c>
+      <c r="J32">
+        <v>0.25</v>
+      </c>
+      <c r="K32">
+        <v>0.2</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>589920</v>
+      </c>
+      <c r="M32" s="1">
+        <f t="shared" si="2"/>
+        <v>2359680</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>4807.5</v>
+      </c>
+      <c r="B33" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="C33" s="1">
+        <v>123392.5</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" t="s">
+        <v>131</v>
+      </c>
+      <c r="F33" s="1">
+        <v>128200</v>
+      </c>
+      <c r="G33">
+        <v>0.45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>132</v>
+      </c>
+      <c r="I33">
+        <v>0.3</v>
+      </c>
+      <c r="J33">
+        <v>0.25</v>
+      </c>
+      <c r="K33">
+        <v>0.15</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="1"/>
+        <v>19230</v>
+      </c>
+      <c r="M33" s="1">
+        <f t="shared" si="2"/>
+        <v>108970</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>48897</v>
+      </c>
+      <c r="B34" s="2">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="C34" s="1">
+        <v>4840803</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" t="s">
+        <v>137</v>
+      </c>
+      <c r="F34" s="1">
+        <v>4889700</v>
+      </c>
+      <c r="G34">
+        <v>0.6</v>
+      </c>
+      <c r="H34" t="s">
+        <v>138</v>
+      </c>
+      <c r="I34">
+        <v>0.3</v>
+      </c>
+      <c r="J34">
+        <v>0.1</v>
+      </c>
+      <c r="K34">
+        <v>0.1</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="1"/>
+        <v>488970</v>
+      </c>
+      <c r="M34" s="1">
+        <f t="shared" si="2"/>
+        <v>4400730</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>2820.9</v>
+      </c>
+      <c r="B35" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5000000000000001E-2</v>
+      </c>
+      <c r="C35" s="1">
+        <v>185239.1</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" t="s">
+        <v>140</v>
+      </c>
+      <c r="F35" s="1">
+        <v>188060</v>
+      </c>
+      <c r="G35">
+        <v>0.65</v>
+      </c>
+      <c r="H35" t="s">
+        <v>141</v>
+      </c>
+      <c r="I35">
+        <v>0.2</v>
+      </c>
+      <c r="J35">
+        <v>0.15</v>
+      </c>
+      <c r="K35">
+        <v>0.1</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="1"/>
+        <v>18806</v>
+      </c>
+      <c r="M35" s="1">
+        <f t="shared" si="2"/>
+        <v>169254</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>34291</v>
+      </c>
+      <c r="B36" s="2">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1680259</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1714550</v>
+      </c>
+      <c r="G36">
+        <v>0.6</v>
+      </c>
+      <c r="H36" t="s">
+        <v>144</v>
+      </c>
+      <c r="I36">
+        <v>0.3</v>
+      </c>
+      <c r="J36">
+        <v>0.1</v>
+      </c>
+      <c r="K36">
+        <v>0.2</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="1"/>
+        <v>342910</v>
+      </c>
+      <c r="M36" s="1">
+        <f t="shared" si="2"/>
+        <v>1371640</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>10639.8</v>
+      </c>
+      <c r="B37" s="2">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="C37" s="1">
+        <v>344020.2</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E37" t="s">
+        <v>149</v>
+      </c>
+      <c r="F37" s="1">
+        <v>354660</v>
+      </c>
+      <c r="G37">
+        <v>0.2</v>
+      </c>
+      <c r="H37" t="s">
+        <v>150</v>
+      </c>
+      <c r="I37">
+        <v>0.6</v>
+      </c>
+      <c r="J37">
+        <v>0.2</v>
+      </c>
+      <c r="K37">
+        <v>0.15</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="1"/>
+        <v>53199</v>
+      </c>
+      <c r="M37" s="1">
+        <f t="shared" si="2"/>
+        <v>301461</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>3382.5</v>
+      </c>
+      <c r="B38" s="2">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="C38" s="1">
+        <v>334867.5</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38" t="s">
+        <v>152</v>
+      </c>
+      <c r="F38" s="1">
+        <v>338250</v>
+      </c>
+      <c r="G38">
+        <v>0.6</v>
+      </c>
+      <c r="H38" t="s">
+        <v>153</v>
+      </c>
+      <c r="I38">
+        <v>0.3</v>
+      </c>
+      <c r="J38">
+        <v>0.1</v>
+      </c>
+      <c r="K38">
+        <v>0.1</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="1"/>
+        <v>33825</v>
+      </c>
+      <c r="M38" s="1">
+        <f t="shared" si="2"/>
+        <v>304425</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>34832.400000000001</v>
+      </c>
+      <c r="B39" s="2">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000002E-2</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1126247.6000000001</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E39" t="s">
+        <v>155</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1161080</v>
+      </c>
+      <c r="G39">
+        <v>0.35</v>
+      </c>
+      <c r="H39" t="s">
+        <v>156</v>
+      </c>
+      <c r="I39">
+        <v>0.5</v>
+      </c>
+      <c r="J39">
+        <v>0.15</v>
+      </c>
+      <c r="K39">
+        <v>0.2</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="1"/>
+        <v>232216</v>
+      </c>
+      <c r="M39" s="1">
+        <f t="shared" si="2"/>
+        <v>928864</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>31672.400000000001</v>
+      </c>
+      <c r="B40" s="2">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1551947.6</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E40" t="s">
+        <v>158</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1583620</v>
+      </c>
+      <c r="G40">
+        <v>0.6</v>
+      </c>
+      <c r="H40" t="s">
+        <v>159</v>
+      </c>
+      <c r="I40">
+        <v>0.3</v>
+      </c>
+      <c r="J40">
+        <v>0.1</v>
+      </c>
+      <c r="K40">
+        <v>0.2</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="1"/>
+        <v>316724</v>
+      </c>
+      <c r="M40" s="1">
+        <f t="shared" si="2"/>
+        <v>1266896</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>39894.299999999901</v>
+      </c>
+      <c r="B41" s="2">
+        <f t="shared" si="0"/>
+        <v>2.9999999999999926E-2</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1289915.7</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E41" t="s">
+        <v>164</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1329810</v>
+      </c>
+      <c r="G41">
+        <v>0.4</v>
+      </c>
+      <c r="H41" t="s">
+        <v>165</v>
+      </c>
+      <c r="I41">
+        <v>0.5</v>
+      </c>
+      <c r="J41">
+        <v>0.1</v>
+      </c>
+      <c r="K41">
+        <v>0.3</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="1"/>
+        <v>398943</v>
+      </c>
+      <c r="M41" s="1">
+        <f t="shared" si="2"/>
+        <v>930867</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>246516.9</v>
+      </c>
+      <c r="B42" s="2">
+        <f t="shared" si="0"/>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="C42" s="1">
+        <v>3275153.1</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E42" t="s">
+        <v>167</v>
+      </c>
+      <c r="F42" s="1">
+        <v>3521670</v>
+      </c>
+      <c r="G42">
+        <v>0.6</v>
+      </c>
+      <c r="H42" t="s">
+        <v>168</v>
+      </c>
+      <c r="I42">
+        <v>0.3</v>
+      </c>
+      <c r="J42">
+        <v>0.1</v>
+      </c>
+      <c r="K42">
+        <v>0.7</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="1"/>
+        <v>2465169</v>
+      </c>
+      <c r="M42" s="1">
+        <f t="shared" si="2"/>
+        <v>1056501</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>126184</v>
+      </c>
+      <c r="B43" s="2">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="C43" s="1">
+        <v>6183016</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E43" t="s">
+        <v>170</v>
+      </c>
+      <c r="F43" s="1">
+        <v>6309200</v>
+      </c>
+      <c r="G43">
+        <v>0.65</v>
+      </c>
+      <c r="H43" t="s">
+        <v>171</v>
+      </c>
+      <c r="I43">
+        <v>0.3</v>
+      </c>
+      <c r="J43">
+        <v>0.05</v>
+      </c>
+      <c r="K43">
+        <v>0.4</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="1"/>
+        <v>2523680</v>
+      </c>
+      <c r="M43" s="1">
+        <f t="shared" si="2"/>
+        <v>3785520</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>40618.5</v>
+      </c>
+      <c r="B44" s="2">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1313331.5</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E44" t="s">
+        <v>173</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1353950</v>
+      </c>
+      <c r="G44">
+        <v>0.65</v>
+      </c>
+      <c r="H44" t="s">
+        <v>174</v>
+      </c>
+      <c r="I44">
+        <v>0.3</v>
+      </c>
+      <c r="J44">
+        <v>0.05</v>
+      </c>
+      <c r="K44">
+        <v>0.6</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="1"/>
+        <v>812370</v>
+      </c>
+      <c r="M44" s="1">
+        <f t="shared" si="2"/>
+        <v>541580</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>12990.15</v>
+      </c>
+      <c r="B45" s="2">
+        <f t="shared" si="0"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C45" s="1">
+        <v>275679.84999999998</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E45" t="s">
+        <v>179</v>
+      </c>
+      <c r="F45" s="1">
+        <v>288670</v>
+      </c>
+      <c r="G45">
+        <v>0.35</v>
+      </c>
+      <c r="H45" t="s">
+        <v>180</v>
+      </c>
+      <c r="I45">
+        <v>0.5</v>
+      </c>
+      <c r="J45">
+        <v>0.15</v>
+      </c>
+      <c r="K45">
+        <v>0.3</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="1"/>
+        <v>86601</v>
+      </c>
+      <c r="M45" s="1">
+        <f t="shared" si="2"/>
+        <v>202069</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>181591.19999999899</v>
+      </c>
+      <c r="B46" s="2">
+        <f t="shared" si="0"/>
+        <v>5.9999999999999665E-2</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2844928.8</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E46" t="s">
+        <v>182</v>
+      </c>
+      <c r="F46" s="1">
+        <v>3026520</v>
+      </c>
+      <c r="G46">
+        <v>0.7</v>
+      </c>
+      <c r="H46" t="s">
+        <v>183</v>
+      </c>
+      <c r="I46">
+        <v>0.2</v>
+      </c>
+      <c r="J46">
+        <v>0.1</v>
+      </c>
+      <c r="K46">
+        <v>0.6</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="1"/>
+        <v>1815912</v>
+      </c>
+      <c r="M46" s="1">
+        <f t="shared" si="2"/>
+        <v>1210608</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>60069.599999999999</v>
+      </c>
+      <c r="B47" s="2">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="C47" s="1">
+        <v>941090.4</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E47" t="s">
+        <v>185</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1001160</v>
+      </c>
+      <c r="G47">
+        <v>0.7</v>
+      </c>
+      <c r="H47" t="s">
+        <v>186</v>
+      </c>
+      <c r="I47">
+        <v>0.2</v>
+      </c>
+      <c r="J47">
+        <v>0.1</v>
+      </c>
+      <c r="K47">
+        <v>0.6</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="1"/>
+        <v>600696</v>
+      </c>
+      <c r="M47" s="1">
+        <f t="shared" si="2"/>
+        <v>400464</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>4108.8</v>
+      </c>
+      <c r="B48" s="2">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="C48" s="1">
+        <v>201331.20000000001</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E48" t="s">
+        <v>191</v>
+      </c>
+      <c r="F48" s="1">
+        <v>205440</v>
+      </c>
+      <c r="G48">
+        <v>0.2</v>
+      </c>
+      <c r="H48" t="s">
+        <v>192</v>
+      </c>
+      <c r="I48">
+        <v>0.6</v>
+      </c>
+      <c r="J48">
+        <v>0.2</v>
+      </c>
+      <c r="K48">
+        <v>0.1</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="1"/>
+        <v>20544</v>
+      </c>
+      <c r="M48" s="1">
+        <f t="shared" si="2"/>
+        <v>184896</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>5487.6</v>
+      </c>
+      <c r="B49" s="2">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="C49" s="1">
+        <v>268892.40000000002</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E49" t="s">
+        <v>194</v>
+      </c>
+      <c r="F49" s="1">
+        <v>274380</v>
+      </c>
+      <c r="G49">
+        <v>0.6</v>
+      </c>
+      <c r="H49" t="s">
+        <v>195</v>
+      </c>
+      <c r="I49">
+        <v>0.3</v>
+      </c>
+      <c r="J49">
+        <v>0.1</v>
+      </c>
+      <c r="K49">
+        <v>0.2</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="1"/>
+        <v>54876</v>
+      </c>
+      <c r="M49" s="1">
+        <f t="shared" si="2"/>
+        <v>219504</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>24259.05</v>
+      </c>
+      <c r="B50" s="2">
+        <f t="shared" si="0"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C50" s="1">
+        <v>514830.95</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E50" t="s">
+        <v>197</v>
+      </c>
+      <c r="F50" s="1">
+        <v>539090</v>
+      </c>
+      <c r="G50">
+        <v>0.35</v>
+      </c>
+      <c r="H50" t="s">
+        <v>198</v>
+      </c>
+      <c r="I50">
+        <v>0.5</v>
+      </c>
+      <c r="J50">
+        <v>0.15</v>
+      </c>
+      <c r="K50">
+        <v>0.3</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="1"/>
+        <v>161727</v>
+      </c>
+      <c r="M50" s="1">
+        <f t="shared" si="2"/>
+        <v>377363</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>956.55</v>
+      </c>
+      <c r="B51" s="2">
+        <f t="shared" ref="B51:B95" si="3">A51/F51</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C51" s="1">
+        <v>62813.45</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E51" t="s">
+        <v>200</v>
+      </c>
+      <c r="F51" s="1">
+        <v>63770</v>
+      </c>
+      <c r="G51">
+        <v>0.35</v>
+      </c>
+      <c r="H51" t="s">
+        <v>201</v>
+      </c>
+      <c r="I51">
+        <v>0.5</v>
+      </c>
+      <c r="J51">
+        <v>0.15</v>
+      </c>
+      <c r="K51">
+        <v>0.1</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="1"/>
+        <v>6377</v>
+      </c>
+      <c r="M51" s="1">
+        <f t="shared" si="2"/>
+        <v>57393</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>5212.1000000000004</v>
+      </c>
+      <c r="B52" s="2">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="C52" s="1">
+        <v>515997.9</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E52" t="s">
+        <v>203</v>
+      </c>
+      <c r="F52" s="1">
+        <v>521210</v>
+      </c>
+      <c r="G52">
+        <v>0.7</v>
+      </c>
+      <c r="H52" t="s">
+        <v>204</v>
+      </c>
+      <c r="I52">
+        <v>0.2</v>
+      </c>
+      <c r="J52">
+        <v>0.1</v>
+      </c>
+      <c r="K52">
+        <v>0.1</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="1"/>
+        <v>52121</v>
+      </c>
+      <c r="M52" s="1">
+        <f t="shared" si="2"/>
+        <v>469089</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>2564.8000000000002</v>
+      </c>
+      <c r="B53" s="2">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="C53" s="1">
+        <v>61555.199999999997</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E53" t="s">
+        <v>206</v>
+      </c>
+      <c r="F53" s="1">
+        <v>64120</v>
+      </c>
+      <c r="G53">
+        <v>0.6</v>
+      </c>
+      <c r="H53" t="s">
+        <v>207</v>
+      </c>
+      <c r="I53">
+        <v>0.3</v>
+      </c>
+      <c r="J53">
+        <v>0.1</v>
+      </c>
+      <c r="K53">
+        <v>0.4</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="1"/>
+        <v>25648</v>
+      </c>
+      <c r="M53" s="1">
+        <f t="shared" si="2"/>
+        <v>38472</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>1235.3999999999901</v>
+      </c>
+      <c r="B54" s="2">
+        <f t="shared" si="3"/>
+        <v>2.9999999999999759E-2</v>
+      </c>
+      <c r="C54" s="1">
+        <v>39944.6</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E54" t="s">
+        <v>209</v>
+      </c>
+      <c r="F54" s="1">
+        <v>41180</v>
+      </c>
+      <c r="G54">
+        <v>0.15</v>
+      </c>
+      <c r="H54" t="s">
+        <v>210</v>
+      </c>
+      <c r="I54">
+        <v>0.75</v>
+      </c>
+      <c r="J54">
+        <v>0.1</v>
+      </c>
+      <c r="K54">
+        <v>0.3</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="1"/>
+        <v>12354</v>
+      </c>
+      <c r="M54" s="1">
+        <f t="shared" si="2"/>
+        <v>28826</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>5632.3</v>
+      </c>
+      <c r="B55" s="2">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1120827.7</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E55" t="s">
+        <v>212</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1126460</v>
+      </c>
+      <c r="G55">
+        <v>0.65</v>
+      </c>
+      <c r="H55" t="s">
+        <v>213</v>
+      </c>
+      <c r="I55">
+        <v>0.3</v>
+      </c>
+      <c r="J55">
+        <v>0.05</v>
+      </c>
+      <c r="K55">
+        <v>0.1</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="1"/>
+        <v>112646</v>
+      </c>
+      <c r="M55" s="1">
+        <f t="shared" si="2"/>
+        <v>1013814</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>100101</v>
+      </c>
+      <c r="B56" s="2">
+        <f t="shared" si="3"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1234579</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E56" t="s">
+        <v>218</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1334680</v>
+      </c>
+      <c r="G56">
+        <v>0.15</v>
+      </c>
+      <c r="H56" t="s">
+        <v>219</v>
+      </c>
+      <c r="I56">
+        <v>0.6</v>
+      </c>
+      <c r="J56">
+        <v>0.25</v>
+      </c>
+      <c r="K56">
+        <v>0.3</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="1"/>
+        <v>400404</v>
+      </c>
+      <c r="M56" s="1">
+        <f t="shared" si="2"/>
+        <v>934276</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>1061891.5999999901</v>
+      </c>
+      <c r="B57" s="2">
+        <f t="shared" si="3"/>
+        <v>0.13999999999999868</v>
+      </c>
+      <c r="C57" s="1">
+        <v>6523048.4000000004</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E57" t="s">
+        <v>221</v>
+      </c>
+      <c r="F57" s="1">
+        <v>7584940</v>
+      </c>
+      <c r="G57">
+        <v>0.2</v>
+      </c>
+      <c r="H57" t="s">
+        <v>222</v>
+      </c>
+      <c r="I57">
+        <v>0.6</v>
+      </c>
+      <c r="J57">
+        <v>0.2</v>
+      </c>
+      <c r="K57">
+        <v>0.7</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="1"/>
+        <v>5309458</v>
+      </c>
+      <c r="M57" s="1">
+        <f t="shared" si="2"/>
+        <v>2275482</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>254910</v>
+      </c>
+      <c r="B58" s="2">
+        <f t="shared" si="3"/>
+        <v>0.12</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1869340</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E58" t="s">
+        <v>224</v>
+      </c>
+      <c r="F58" s="1">
+        <v>2124250</v>
+      </c>
+      <c r="G58">
+        <v>0.1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>225</v>
+      </c>
+      <c r="I58">
+        <v>0.6</v>
+      </c>
+      <c r="J58">
+        <v>0.3</v>
+      </c>
+      <c r="K58">
+        <v>0.4</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="1"/>
+        <v>849700</v>
+      </c>
+      <c r="M58" s="1">
+        <f t="shared" si="2"/>
+        <v>1274550</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>328488.3</v>
+      </c>
+      <c r="B59" s="2">
+        <f t="shared" si="3"/>
+        <v>0.21</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1235741.7</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E59" t="s">
+        <v>227</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1564230</v>
+      </c>
+      <c r="G59">
+        <v>0.1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>228</v>
+      </c>
+      <c r="I59">
+        <v>0.6</v>
+      </c>
+      <c r="J59">
+        <v>0.3</v>
+      </c>
+      <c r="K59">
+        <v>0.7</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="1"/>
+        <v>1094961</v>
+      </c>
+      <c r="M59" s="1">
+        <f t="shared" si="2"/>
+        <v>469269</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>57515</v>
+      </c>
+      <c r="B60" s="2">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="C60" s="1">
+        <v>517635</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E60" t="s">
+        <v>230</v>
+      </c>
+      <c r="F60" s="1">
+        <v>575150</v>
+      </c>
+      <c r="G60">
+        <v>0.15</v>
+      </c>
+      <c r="H60" t="s">
+        <v>231</v>
+      </c>
+      <c r="I60">
+        <v>0.6</v>
+      </c>
+      <c r="J60">
+        <v>0.25</v>
+      </c>
+      <c r="K60">
+        <v>0.4</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="1"/>
+        <v>230060</v>
+      </c>
+      <c r="M60" s="1">
+        <f t="shared" si="2"/>
+        <v>345090</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>358905.59999999998</v>
+      </c>
+      <c r="B61" s="2">
+        <f t="shared" si="3"/>
+        <v>0.24</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1136534.3999999999</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E61" t="s">
+        <v>236</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1495440</v>
+      </c>
+      <c r="G61">
+        <v>0.1</v>
+      </c>
+      <c r="H61" t="s">
+        <v>237</v>
+      </c>
+      <c r="I61">
+        <v>0.5</v>
+      </c>
+      <c r="J61">
+        <v>0.4</v>
+      </c>
+      <c r="K61">
+        <v>0.6</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="1"/>
+        <v>897264</v>
+      </c>
+      <c r="M61" s="1">
+        <f t="shared" si="2"/>
+        <v>598176</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>31356.5</v>
+      </c>
+      <c r="B62" s="2">
+        <f t="shared" si="3"/>
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="C62" s="1">
+        <v>21343.5</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E62" t="s">
+        <v>239</v>
+      </c>
+      <c r="F62" s="1">
+        <v>52700</v>
+      </c>
+      <c r="G62">
+        <v>0.1</v>
+      </c>
+      <c r="H62" t="s">
+        <v>240</v>
+      </c>
+      <c r="I62">
+        <v>0.2</v>
+      </c>
+      <c r="J62">
+        <v>0.7</v>
+      </c>
+      <c r="K62">
+        <v>0.85</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="1"/>
+        <v>44795</v>
+      </c>
+      <c r="M62" s="1">
+        <f t="shared" si="2"/>
+        <v>7905</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>1680351.3999999899</v>
+      </c>
+      <c r="B63" s="2">
+        <f t="shared" si="3"/>
+        <v>0.59499999999999642</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1143768.6000000001</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E63" t="s">
+        <v>242</v>
+      </c>
+      <c r="F63" s="1">
+        <v>2824120</v>
+      </c>
+      <c r="G63">
+        <v>0.05</v>
+      </c>
+      <c r="H63" t="s">
+        <v>243</v>
+      </c>
+      <c r="I63">
+        <v>0.25</v>
+      </c>
+      <c r="J63">
+        <v>0.7</v>
+      </c>
+      <c r="K63">
+        <v>0.85</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="1"/>
+        <v>2400502</v>
+      </c>
+      <c r="M63" s="1">
+        <f t="shared" si="2"/>
+        <v>423618</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>3341496.1999999899</v>
+      </c>
+      <c r="B64" s="2">
+        <f t="shared" si="3"/>
+        <v>0.5949999999999982</v>
+      </c>
+      <c r="C64" s="1">
+        <v>2274463.7999999998</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E64" t="s">
+        <v>245</v>
+      </c>
+      <c r="F64" s="1">
+        <v>5615960</v>
+      </c>
+      <c r="G64">
+        <v>0.1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>246</v>
+      </c>
+      <c r="I64">
+        <v>0.2</v>
+      </c>
+      <c r="J64">
+        <v>0.7</v>
+      </c>
+      <c r="K64">
+        <v>0.85</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="1"/>
+        <v>4773566</v>
+      </c>
+      <c r="M64" s="1">
+        <f t="shared" si="2"/>
+        <v>842394</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>1107168</v>
+      </c>
+      <c r="B65" s="2">
+        <f t="shared" si="3"/>
+        <v>0.48</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1199432</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E65" t="s">
+        <v>248</v>
+      </c>
+      <c r="F65" s="1">
+        <v>2306600</v>
+      </c>
+      <c r="G65">
+        <v>0.2</v>
+      </c>
+      <c r="H65" t="s">
+        <v>249</v>
+      </c>
+      <c r="I65">
+        <v>0.2</v>
+      </c>
+      <c r="J65">
+        <v>0.6</v>
+      </c>
+      <c r="K65">
+        <v>0.8</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="1"/>
+        <v>1845280</v>
+      </c>
+      <c r="M65" s="1">
+        <f t="shared" si="2"/>
+        <v>461320</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>1760925.6</v>
+      </c>
+      <c r="B66" s="2">
+        <f t="shared" si="3"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1383584.4</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E66" t="s">
+        <v>251</v>
+      </c>
+      <c r="F66" s="1">
+        <v>3144510</v>
+      </c>
+      <c r="G66">
+        <v>0.1</v>
+      </c>
+      <c r="H66" t="s">
+        <v>252</v>
+      </c>
+      <c r="I66">
+        <v>0.2</v>
+      </c>
+      <c r="J66">
+        <v>0.7</v>
+      </c>
+      <c r="K66">
+        <v>0.8</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="1"/>
+        <v>2515608</v>
+      </c>
+      <c r="M66" s="1">
+        <f t="shared" si="2"/>
+        <v>628902</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>1358880.5999999901</v>
+      </c>
+      <c r="B67" s="2">
+        <f t="shared" si="3"/>
+        <v>0.41999999999999693</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1876549.4</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E67" t="s">
+        <v>254</v>
+      </c>
+      <c r="F67" s="1">
+        <v>3235430</v>
+      </c>
+      <c r="G67">
+        <v>0.15</v>
+      </c>
+      <c r="H67" t="s">
+        <v>255</v>
+      </c>
+      <c r="I67">
+        <v>0.25</v>
+      </c>
+      <c r="J67">
+        <v>0.6</v>
+      </c>
+      <c r="K67">
+        <v>0.7</v>
+      </c>
+      <c r="L67">
+        <f t="shared" ref="L67:L95" si="4">K67*F67</f>
+        <v>2264801</v>
+      </c>
+      <c r="M67" s="1">
+        <f t="shared" ref="M67:M95" si="5">F67-L67</f>
+        <v>970629</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>2490.2999999999902</v>
+      </c>
+      <c r="B68" s="2">
+        <f t="shared" si="3"/>
+        <v>8.999999999999965E-2</v>
+      </c>
+      <c r="C68" s="1">
+        <v>25179.7</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E68" t="s">
+        <v>260</v>
+      </c>
+      <c r="F68" s="1">
+        <v>27670</v>
+      </c>
+      <c r="G68">
+        <v>0.35</v>
+      </c>
+      <c r="H68" t="s">
+        <v>261</v>
+      </c>
+      <c r="I68">
+        <v>0.5</v>
+      </c>
+      <c r="J68">
+        <v>0.15</v>
+      </c>
+      <c r="K68">
+        <v>0.6</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="4"/>
+        <v>16602</v>
+      </c>
+      <c r="M68" s="1">
+        <f t="shared" si="5"/>
+        <v>11068</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>33192.5</v>
+      </c>
+      <c r="B69" s="2">
+        <f t="shared" si="3"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="C69" s="1">
+        <v>357307.5</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E69" t="s">
+        <v>263</v>
+      </c>
+      <c r="F69" s="1">
+        <v>390500</v>
+      </c>
+      <c r="G69">
+        <v>0.7</v>
+      </c>
+      <c r="H69" t="s">
+        <v>264</v>
+      </c>
+      <c r="I69">
+        <v>0.2</v>
+      </c>
+      <c r="J69">
+        <v>0.1</v>
+      </c>
+      <c r="K69">
+        <v>0.85</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="4"/>
+        <v>331925</v>
+      </c>
+      <c r="M69" s="1">
+        <f t="shared" si="5"/>
+        <v>58575</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>2569.7999999999902</v>
+      </c>
+      <c r="B70" s="2">
+        <f t="shared" si="3"/>
+        <v>5.9999999999999769E-2</v>
+      </c>
+      <c r="C70" s="1">
+        <v>40260.199999999997</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E70" t="s">
+        <v>266</v>
+      </c>
+      <c r="F70" s="1">
+        <v>42830</v>
+      </c>
+      <c r="G70">
+        <v>0.7</v>
+      </c>
+      <c r="H70" t="s">
+        <v>267</v>
+      </c>
+      <c r="I70">
+        <v>0.2</v>
+      </c>
+      <c r="J70">
+        <v>0.1</v>
+      </c>
+      <c r="K70">
+        <v>0.6</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="4"/>
+        <v>25698</v>
+      </c>
+      <c r="M70" s="1">
+        <f t="shared" si="5"/>
+        <v>17132</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>43254</v>
+      </c>
+      <c r="B71" s="2">
+        <f t="shared" si="3"/>
+        <v>0.06</v>
+      </c>
+      <c r="C71" s="1">
+        <v>677646</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E71" t="s">
+        <v>272</v>
+      </c>
+      <c r="F71" s="1">
+        <v>720900</v>
+      </c>
+      <c r="G71">
+        <v>0.35</v>
+      </c>
+      <c r="H71" t="s">
+        <v>273</v>
+      </c>
+      <c r="I71">
+        <v>0.5</v>
+      </c>
+      <c r="J71">
+        <v>0.15</v>
+      </c>
+      <c r="K71">
+        <v>0.4</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="4"/>
+        <v>288360</v>
+      </c>
+      <c r="M71" s="1">
+        <f t="shared" si="5"/>
+        <v>432540</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>180392.8</v>
+      </c>
+      <c r="B72" s="2">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="C72" s="1">
+        <v>4329427.2</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E72" t="s">
+        <v>275</v>
+      </c>
+      <c r="F72" s="1">
+        <v>4509820</v>
+      </c>
+      <c r="G72">
+        <v>0.7</v>
+      </c>
+      <c r="H72" t="s">
+        <v>276</v>
+      </c>
+      <c r="I72">
+        <v>0.2</v>
+      </c>
+      <c r="J72">
+        <v>0.1</v>
+      </c>
+      <c r="K72">
+        <v>0.4</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="4"/>
+        <v>1803928</v>
+      </c>
+      <c r="M72" s="1">
+        <f t="shared" si="5"/>
+        <v>2705892</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>12144.6</v>
+      </c>
+      <c r="B73" s="2">
+        <f t="shared" si="3"/>
+        <v>6.0000000000000005E-2</v>
+      </c>
+      <c r="C73" s="1">
+        <v>190265.4</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E73" t="s">
+        <v>278</v>
+      </c>
+      <c r="F73" s="1">
+        <v>202410</v>
+      </c>
+      <c r="G73">
+        <v>0.7</v>
+      </c>
+      <c r="H73" t="s">
+        <v>279</v>
+      </c>
+      <c r="I73">
+        <v>0.2</v>
+      </c>
+      <c r="J73">
+        <v>0.1</v>
+      </c>
+      <c r="K73">
+        <v>0.6</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="4"/>
+        <v>121446</v>
+      </c>
+      <c r="M73" s="1">
+        <f t="shared" si="5"/>
+        <v>80964</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>26797.8</v>
+      </c>
+      <c r="B74" s="2">
+        <f t="shared" si="3"/>
+        <v>0.06</v>
+      </c>
+      <c r="C74" s="1">
+        <v>419832.2</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E74" t="s">
+        <v>281</v>
+      </c>
+      <c r="F74" s="1">
+        <v>446630</v>
+      </c>
+      <c r="G74">
+        <v>0.7</v>
+      </c>
+      <c r="H74" t="s">
+        <v>282</v>
+      </c>
+      <c r="I74">
+        <v>0.2</v>
+      </c>
+      <c r="J74">
+        <v>0.1</v>
+      </c>
+      <c r="K74">
+        <v>0.6</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="4"/>
+        <v>267978</v>
+      </c>
+      <c r="M74" s="1">
+        <f t="shared" si="5"/>
+        <v>178652</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>23490</v>
+      </c>
+      <c r="B75" s="2">
+        <f t="shared" si="3"/>
+        <v>0.12</v>
+      </c>
+      <c r="C75" s="1">
+        <v>172260</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E75" t="s">
+        <v>284</v>
+      </c>
+      <c r="F75" s="1">
+        <v>195750</v>
+      </c>
+      <c r="G75">
+        <v>0.65</v>
+      </c>
+      <c r="H75" t="s">
+        <v>285</v>
+      </c>
+      <c r="I75">
+        <v>0.2</v>
+      </c>
+      <c r="J75">
+        <v>0.15</v>
+      </c>
+      <c r="K75">
+        <v>0.8</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="4"/>
+        <v>156600</v>
+      </c>
+      <c r="M75" s="1">
+        <f t="shared" si="5"/>
+        <v>39150</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>83857.5</v>
+      </c>
+      <c r="B76" s="2">
+        <f t="shared" si="3"/>
+        <v>0.15</v>
+      </c>
+      <c r="C76" s="1">
+        <v>475192.5</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E76" t="s">
+        <v>290</v>
+      </c>
+      <c r="F76" s="1">
+        <v>559050</v>
+      </c>
+      <c r="G76">
+        <v>0.35</v>
+      </c>
+      <c r="H76" t="s">
+        <v>291</v>
+      </c>
+      <c r="I76">
+        <v>0.4</v>
+      </c>
+      <c r="J76">
+        <v>0.25</v>
+      </c>
+      <c r="K76">
+        <v>0.6</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="4"/>
+        <v>335430</v>
+      </c>
+      <c r="M76" s="1">
+        <f t="shared" si="5"/>
+        <v>223620</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>69470.799999999901</v>
+      </c>
+      <c r="B77" s="2">
+        <f t="shared" si="3"/>
+        <v>0.13999999999999979</v>
+      </c>
+      <c r="C77" s="1">
+        <v>426749.2</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E77" t="s">
+        <v>293</v>
+      </c>
+      <c r="F77" s="1">
+        <v>496220</v>
+      </c>
+      <c r="G77">
+        <v>0.6</v>
+      </c>
+      <c r="H77" t="s">
+        <v>294</v>
+      </c>
+      <c r="I77">
+        <v>0.2</v>
+      </c>
+      <c r="J77">
+        <v>0.2</v>
+      </c>
+      <c r="K77">
+        <v>0.7</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="4"/>
+        <v>347354</v>
+      </c>
+      <c r="M77" s="1">
+        <f t="shared" si="5"/>
+        <v>148866</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>172785.9</v>
+      </c>
+      <c r="B78" s="2">
+        <f t="shared" si="3"/>
+        <v>0.105</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1472794.1</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E78" t="s">
+        <v>296</v>
+      </c>
+      <c r="F78" s="1">
+        <v>1645580</v>
+      </c>
+      <c r="G78">
+        <v>0.65</v>
+      </c>
+      <c r="H78" t="s">
+        <v>297</v>
+      </c>
+      <c r="I78">
+        <v>0.2</v>
+      </c>
+      <c r="J78">
+        <v>0.15</v>
+      </c>
+      <c r="K78">
+        <v>0.7</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="4"/>
+        <v>1151906</v>
+      </c>
+      <c r="M78" s="1">
+        <f t="shared" si="5"/>
+        <v>493674</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>327867.75</v>
+      </c>
+      <c r="B79" s="2">
+        <f t="shared" si="3"/>
+        <v>0.105</v>
+      </c>
+      <c r="C79" s="1">
+        <v>2794682.25</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E79" t="s">
+        <v>299</v>
+      </c>
+      <c r="F79" s="1">
+        <v>3122550</v>
+      </c>
+      <c r="G79">
+        <v>0.65</v>
+      </c>
+      <c r="H79" t="s">
+        <v>300</v>
+      </c>
+      <c r="I79">
+        <v>0.2</v>
+      </c>
+      <c r="J79">
+        <v>0.15</v>
+      </c>
+      <c r="K79">
+        <v>0.7</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="4"/>
+        <v>2185785</v>
+      </c>
+      <c r="M79" s="1">
+        <f t="shared" si="5"/>
+        <v>936765</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>79191.599999999904</v>
+      </c>
+      <c r="B80" s="2">
+        <f t="shared" si="3"/>
+        <v>0.11999999999999986</v>
+      </c>
+      <c r="C80" s="1">
+        <v>580738.4</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E80" t="s">
+        <v>305</v>
+      </c>
+      <c r="F80" s="1">
+        <v>659930</v>
+      </c>
+      <c r="G80">
+        <v>0.3</v>
+      </c>
+      <c r="H80" t="s">
+        <v>306</v>
+      </c>
+      <c r="I80">
+        <v>0.5</v>
+      </c>
+      <c r="J80">
+        <v>0.2</v>
+      </c>
+      <c r="K80">
+        <v>0.6</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="4"/>
+        <v>395958</v>
+      </c>
+      <c r="M80" s="1">
+        <f t="shared" si="5"/>
+        <v>263972</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>242748.52499999999</v>
+      </c>
+      <c r="B81" s="2">
+        <f t="shared" si="3"/>
+        <v>0.1275</v>
+      </c>
+      <c r="C81" s="1">
+        <v>1661161.4750000001</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E81" t="s">
+        <v>308</v>
+      </c>
+      <c r="F81" s="1">
+        <v>1903910</v>
+      </c>
+      <c r="G81">
+        <v>0.65</v>
+      </c>
+      <c r="H81" t="s">
+        <v>309</v>
+      </c>
+      <c r="I81">
+        <v>0.2</v>
+      </c>
+      <c r="J81">
+        <v>0.15</v>
+      </c>
+      <c r="K81">
+        <v>0.85</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="4"/>
+        <v>1618323.5</v>
+      </c>
+      <c r="M81" s="1">
+        <f t="shared" si="5"/>
+        <v>285586.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>64630.400000000001</v>
+      </c>
+      <c r="B82" s="2">
+        <f t="shared" si="3"/>
+        <v>0.08</v>
+      </c>
+      <c r="C82" s="1">
+        <v>743249.6</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E82" t="s">
+        <v>311</v>
+      </c>
+      <c r="F82" s="1">
+        <v>807880</v>
+      </c>
+      <c r="G82">
+        <v>0.7</v>
+      </c>
+      <c r="H82" t="s">
+        <v>312</v>
+      </c>
+      <c r="I82">
+        <v>0.2</v>
+      </c>
+      <c r="J82">
+        <v>0.1</v>
+      </c>
+      <c r="K82">
+        <v>0.8</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="4"/>
+        <v>646304</v>
+      </c>
+      <c r="M82" s="1">
+        <f t="shared" si="5"/>
+        <v>161576</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>197310</v>
+      </c>
+      <c r="B83" s="2">
+        <f t="shared" si="3"/>
+        <v>0.12</v>
+      </c>
+      <c r="C83" s="1">
+        <v>1446940</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E83" t="s">
+        <v>314</v>
+      </c>
+      <c r="F83" s="1">
+        <v>1644250</v>
+      </c>
+      <c r="G83">
+        <v>0.65</v>
+      </c>
+      <c r="H83" t="s">
+        <v>315</v>
+      </c>
+      <c r="I83">
+        <v>0.2</v>
+      </c>
+      <c r="J83">
+        <v>0.15</v>
+      </c>
+      <c r="K83">
+        <v>0.8</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="4"/>
+        <v>1315400</v>
+      </c>
+      <c r="M83" s="1">
+        <f t="shared" si="5"/>
+        <v>328850</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>34284.800000000003</v>
+      </c>
+      <c r="B84" s="2">
+        <f t="shared" si="3"/>
+        <v>0.16</v>
+      </c>
+      <c r="C84" s="1">
+        <v>179995.2</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E84" t="s">
+        <v>317</v>
+      </c>
+      <c r="F84" s="1">
+        <v>214280</v>
+      </c>
+      <c r="G84">
+        <v>0.6</v>
+      </c>
+      <c r="H84" t="s">
+        <v>318</v>
+      </c>
+      <c r="I84">
+        <v>0.2</v>
+      </c>
+      <c r="J84">
+        <v>0.2</v>
+      </c>
+      <c r="K84">
+        <v>0.8</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="4"/>
+        <v>171424</v>
+      </c>
+      <c r="M84" s="1">
+        <f t="shared" si="5"/>
+        <v>42856</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>37487.199999999997</v>
+      </c>
+      <c r="B85" s="2">
+        <f t="shared" si="3"/>
+        <v>7.9999999999999988E-2</v>
+      </c>
+      <c r="C85" s="1">
+        <v>431102.8</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E85" t="s">
+        <v>320</v>
+      </c>
+      <c r="F85" s="1">
+        <v>468590</v>
+      </c>
+      <c r="G85">
+        <v>0.7</v>
+      </c>
+      <c r="H85" t="s">
+        <v>321</v>
+      </c>
+      <c r="I85">
+        <v>0.2</v>
+      </c>
+      <c r="J85">
+        <v>0.1</v>
+      </c>
+      <c r="K85">
+        <v>0.8</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="4"/>
+        <v>374872</v>
+      </c>
+      <c r="M85" s="1">
+        <f t="shared" si="5"/>
+        <v>93718</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>13873.8</v>
+      </c>
+      <c r="B86" s="2">
+        <f t="shared" si="3"/>
+        <v>0.06</v>
+      </c>
+      <c r="C86" s="1">
+        <v>217356.2</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E86" t="s">
+        <v>323</v>
+      </c>
+      <c r="F86" s="1">
+        <v>231230</v>
+      </c>
+      <c r="G86">
+        <v>0.7</v>
+      </c>
+      <c r="H86" t="s">
+        <v>324</v>
+      </c>
+      <c r="I86">
+        <v>0.2</v>
+      </c>
+      <c r="J86">
+        <v>0.1</v>
+      </c>
+      <c r="K86">
+        <v>0.6</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="4"/>
+        <v>138738</v>
+      </c>
+      <c r="M86" s="1">
+        <f t="shared" si="5"/>
+        <v>92492</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>77551.600000000006</v>
+      </c>
+      <c r="B87" s="2">
+        <f t="shared" si="3"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C87" s="1">
+        <v>199418.4</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E87" t="s">
+        <v>326</v>
+      </c>
+      <c r="F87" s="1">
+        <v>276970</v>
+      </c>
+      <c r="G87">
+        <v>0.45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>327</v>
+      </c>
+      <c r="I87">
+        <v>0.2</v>
+      </c>
+      <c r="J87">
+        <v>0.35</v>
+      </c>
+      <c r="K87">
+        <v>0.8</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="4"/>
+        <v>221576</v>
+      </c>
+      <c r="M87" s="1">
+        <f t="shared" si="5"/>
+        <v>55394</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>322822.34999999998</v>
+      </c>
+      <c r="B88" s="2">
+        <f t="shared" si="3"/>
+        <v>0.1275</v>
+      </c>
+      <c r="C88" s="1">
+        <v>2209117.65</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E88" t="s">
+        <v>329</v>
+      </c>
+      <c r="F88" s="1">
+        <v>2531940</v>
+      </c>
+      <c r="G88">
+        <v>0.65</v>
+      </c>
+      <c r="H88" t="s">
+        <v>330</v>
+      </c>
+      <c r="I88">
+        <v>0.2</v>
+      </c>
+      <c r="J88">
+        <v>0.15</v>
+      </c>
+      <c r="K88">
+        <v>0.85</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="4"/>
+        <v>2152149</v>
+      </c>
+      <c r="M88" s="1">
+        <f t="shared" si="5"/>
+        <v>379791</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>125939.099999999</v>
+      </c>
+      <c r="B89" s="2">
+        <f t="shared" si="3"/>
+        <v>0.20999999999999833</v>
+      </c>
+      <c r="C89" s="1">
+        <v>473770.9</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E89" t="s">
+        <v>335</v>
+      </c>
+      <c r="F89" s="1">
+        <v>599710</v>
+      </c>
+      <c r="G89">
+        <v>0.25</v>
+      </c>
+      <c r="H89" t="s">
+        <v>336</v>
+      </c>
+      <c r="I89">
+        <v>0.4</v>
+      </c>
+      <c r="J89">
+        <v>0.35</v>
+      </c>
+      <c r="K89">
+        <v>0.6</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="4"/>
+        <v>359826</v>
+      </c>
+      <c r="M89" s="1">
+        <f t="shared" si="5"/>
+        <v>239884</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>39594.799999999901</v>
+      </c>
+      <c r="B90" s="2">
+        <f t="shared" si="3"/>
+        <v>0.13999999999999965</v>
+      </c>
+      <c r="C90" s="1">
+        <v>243225.2</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E90" t="s">
+        <v>338</v>
+      </c>
+      <c r="F90" s="1">
+        <v>282820</v>
+      </c>
+      <c r="G90">
+        <v>0.6</v>
+      </c>
+      <c r="H90" t="s">
+        <v>339</v>
+      </c>
+      <c r="I90">
+        <v>0.2</v>
+      </c>
+      <c r="J90">
+        <v>0.2</v>
+      </c>
+      <c r="K90">
+        <v>0.7</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="4"/>
+        <v>197974</v>
+      </c>
+      <c r="M90" s="1">
+        <f t="shared" si="5"/>
+        <v>84846</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>366837.89999999898</v>
+      </c>
+      <c r="B91" s="2">
+        <f t="shared" si="3"/>
+        <v>8.4999999999999756E-2</v>
+      </c>
+      <c r="C91" s="1">
+        <v>3948902.1</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E91" t="s">
+        <v>341</v>
+      </c>
+      <c r="F91" s="1">
+        <v>4315740</v>
+      </c>
+      <c r="G91">
+        <v>0.7</v>
+      </c>
+      <c r="H91" t="s">
+        <v>342</v>
+      </c>
+      <c r="I91">
+        <v>0.2</v>
+      </c>
+      <c r="J91">
+        <v>0.1</v>
+      </c>
+      <c r="K91">
+        <v>0.85</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="4"/>
+        <v>3668379</v>
+      </c>
+      <c r="M91" s="1">
+        <f t="shared" si="5"/>
+        <v>647361</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>16899.2</v>
+      </c>
+      <c r="B92" s="2">
+        <f t="shared" si="3"/>
+        <v>0.16</v>
+      </c>
+      <c r="C92" s="1">
+        <v>88720.8</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E92" t="s">
+        <v>344</v>
+      </c>
+      <c r="F92" s="1">
+        <v>105620</v>
+      </c>
+      <c r="G92">
+        <v>0.6</v>
+      </c>
+      <c r="H92" t="s">
+        <v>345</v>
+      </c>
+      <c r="I92">
+        <v>0.2</v>
+      </c>
+      <c r="J92">
+        <v>0.2</v>
+      </c>
+      <c r="K92">
+        <v>0.8</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="4"/>
+        <v>84496</v>
+      </c>
+      <c r="M92" s="1">
+        <f t="shared" si="5"/>
+        <v>21124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>5264</v>
+      </c>
+      <c r="B93" s="2">
+        <f t="shared" si="3"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C93" s="1">
+        <v>69936</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E93" t="s">
+        <v>347</v>
+      </c>
+      <c r="F93" s="1">
+        <v>75200</v>
+      </c>
+      <c r="G93">
+        <v>0.6</v>
+      </c>
+      <c r="H93" t="s">
+        <v>348</v>
+      </c>
+      <c r="I93">
+        <v>0.3</v>
+      </c>
+      <c r="J93">
+        <v>0.1</v>
+      </c>
+      <c r="K93">
+        <v>0.7</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="4"/>
+        <v>52640</v>
+      </c>
+      <c r="M93" s="1">
+        <f t="shared" si="5"/>
+        <v>22560</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>24208.85</v>
+      </c>
+      <c r="B94" s="2">
+        <f t="shared" si="3"/>
+        <v>8.4999999999999992E-2</v>
+      </c>
+      <c r="C94" s="1">
+        <v>260601.15</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E94" t="s">
+        <v>350</v>
+      </c>
+      <c r="F94" s="1">
+        <v>284810</v>
+      </c>
+      <c r="G94">
+        <v>0.7</v>
+      </c>
+      <c r="H94" t="s">
+        <v>351</v>
+      </c>
+      <c r="I94">
+        <v>0.2</v>
+      </c>
+      <c r="J94">
+        <v>0.1</v>
+      </c>
+      <c r="K94">
+        <v>0.85</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="4"/>
+        <v>242088.5</v>
+      </c>
+      <c r="M94" s="1">
+        <f t="shared" si="5"/>
+        <v>42721.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>671207.6</v>
+      </c>
+      <c r="B95" s="2">
+        <f t="shared" si="3"/>
+        <v>8.4999999999999992E-2</v>
+      </c>
+      <c r="C95" s="1">
+        <v>7225352.4000000004</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E95" t="s">
+        <v>353</v>
+      </c>
+      <c r="F95" s="1">
+        <v>7896560</v>
+      </c>
+      <c r="G95">
+        <v>0.7</v>
+      </c>
+      <c r="H95" t="s">
+        <v>354</v>
+      </c>
+      <c r="I95">
+        <v>0.2</v>
+      </c>
+      <c r="J95">
+        <v>0.1</v>
+      </c>
+      <c r="K95">
+        <v>0.85</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="4"/>
+        <v>6712076</v>
+      </c>
+      <c r="M95" s="1">
+        <f t="shared" si="5"/>
+        <v>1184484</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <f>SUM(A1:A100)</f>
+        <v>24855136.724999964</v>
+      </c>
+      <c r="B101" s="2">
+        <f>AVERAGE(B1:B96)</f>
+        <v>0.13984042553191472</v>
+      </c>
+      <c r="C101" s="1">
+        <f>SUM(C1:C100)</f>
+        <v>123030103.2750001</v>
+      </c>
+      <c r="F101" s="1">
+        <f>SUM(F1:F100)</f>
+        <v>147885240</v>
+      </c>
+      <c r="L101" s="1">
+        <f>SUM(L1:L100)</f>
+        <v>77274060</v>
+      </c>
+      <c r="M101" s="1">
+        <f>SUM(M1:M100)</f>
+        <v>70611180</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="L102" t="s">
+        <v>361</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:B1048576">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1048576 L1:M1">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
